--- a/medicine/Psychotrope/Gattinara_(vin)/Gattinara_(vin).xlsx
+++ b/medicine/Psychotrope/Gattinara_(vin)/Gattinara_(vin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Gattinara est un vin rouge sec italien de la région Piémont doté d'une appellation DOCG depuis le 20 octobre 1990. 
@@ -513,7 +525,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Verceil dans la commune de Gattinara. Les 103,64.hectares délimitée sont en production.
 Les vignobles se situent sur les pentes qui surplombent les deux rives du cours d'eau de la Sesia. Au sud de l'appellation, on trouve le vignoble de Ghemme.
@@ -547,7 +561,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur: rouge grenat avec des reflets orangés, qui s’atténue avec le temps.
 odeur:  caractéristique, intense, qui s’affine avec le vieillissement, arômes de violette.
@@ -582,6 +598,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -607,7 +625,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Rôtis de viandes blanches et rouges, grillades, gibier à plume ou à poil, fromages à pâte pressée.
 </t>
@@ -638,7 +658,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
 Vercelli  (1990/91)  3706,52
